--- a/biology/Biochimie/5-Bromouracile/5-Bromouracile.xlsx
+++ b/biology/Biochimie/5-Bromouracile/5-Bromouracile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 5-bromouracile (5-BrU) est un dérivé bromé de l'uracile agissant comme antimétabolite ou analogue de base nucléique à la place de la thymine dans l'ADN susceptible d'induire des mutations de la même manière que la 2-aminopurine. On l'utilise essentiellement comme mutagène expérimental, mais son dérivé désoxy, la bromodésoxyuridine, est utilisé comme antinéoplasique.
 Le 5-bromouracile possède trois tautomères qui ont des propriétés d'appariement différentes. La forme céto est complémentaire de l'adénine, tandis que l'une des formes énol est complémentaire de la guanine :
-Il en résulte que le 5-bromouracile est susceptible de s'apparier aussi bien avec l'adénine qu'avec la guanine selon son état tautomérique au moment de la réplication, ce qui introduit des mutations au gré des réplications[2].
+Il en résulte que le 5-bromouracile est susceptible de s'apparier aussi bien avec l'adénine qu'avec la guanine selon son état tautomérique au moment de la réplication, ce qui introduit des mutations au gré des réplications.
 </t>
         </is>
       </c>
